--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15340" yWindow="460" windowWidth="10260" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="15600" yWindow="460" windowWidth="10000" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="80">
   <si>
     <t>i</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>You found the exit!</t>
+  </si>
+  <si>
+    <t>Triggers</t>
+  </si>
+  <si>
+    <t>You assault the dragon with the axe.</t>
+  </si>
+  <si>
+    <t>axe got sharper</t>
+  </si>
+  <si>
+    <t>the axe is quite sharp</t>
   </si>
 </sst>
 </file>
@@ -303,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -312,9 +324,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -977,8 +991,8 @@
       <c r="E20" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="1">
-        <v>0</v>
+      <c r="F20" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1306,7 +1320,7 @@
       <c r="D42" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F42">
@@ -1326,7 +1340,7 @@
       <c r="D43" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F43">
@@ -1346,7 +1360,7 @@
       <c r="D44" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F44">
@@ -1366,7 +1380,7 @@
       <c r="D45" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F45">
@@ -1386,7 +1400,7 @@
       <c r="D46" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F46">
@@ -1406,7 +1420,7 @@
       <c r="D47" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F47">
@@ -1426,7 +1440,7 @@
       <c r="D48" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F48">
@@ -1443,7 +1457,7 @@
       <c r="D49" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F49">
@@ -1460,7 +1474,7 @@
       <c r="D50" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F50">
@@ -1480,7 +1494,7 @@
       <c r="D51" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F51">
@@ -1500,7 +1514,7 @@
       <c r="D52" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F52">
@@ -1520,7 +1534,7 @@
       <c r="D53" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F53">
@@ -1531,7 +1545,7 @@
       <c r="D54" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F54">
@@ -1542,19 +1556,221 @@
       <c r="D55" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
     </row>
+    <row r="57" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A57:C57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15600" yWindow="460" windowWidth="10000" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="12560" yWindow="460" windowWidth="13040" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,18 +289,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -315,12 +309,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -329,6 +319,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -622,16 +615,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -985,13 +978,13 @@
       <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="1">
-        <v>0</v>
+      <c r="C20" s="4">
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1082,8 +1075,8 @@
       <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="1">
-        <v>0</v>
+      <c r="C25" s="4">
+        <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>37</v>
@@ -1265,16 +1258,16 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -1300,7 +1293,7 @@
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F41">
@@ -1320,7 +1313,7 @@
       <c r="D42" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F42">
@@ -1340,7 +1333,7 @@
       <c r="D43" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F43">
@@ -1360,7 +1353,7 @@
       <c r="D44" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F44">
@@ -1380,7 +1373,7 @@
       <c r="D45" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F45">
@@ -1400,7 +1393,7 @@
       <c r="D46" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F46">
@@ -1420,7 +1413,7 @@
       <c r="D47" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F47">
@@ -1440,7 +1433,7 @@
       <c r="D48" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F48">
@@ -1457,7 +1450,7 @@
       <c r="D49" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F49">
@@ -1474,7 +1467,7 @@
       <c r="D50" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="3" t="s">
         <v>74</v>
       </c>
       <c r="F50">
@@ -1494,7 +1487,7 @@
       <c r="D51" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F51">
@@ -1514,7 +1507,7 @@
       <c r="D52" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F52">
@@ -1534,7 +1527,7 @@
       <c r="D53" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F53">
@@ -1545,7 +1538,7 @@
       <c r="D54" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F54">
@@ -1556,7 +1549,7 @@
       <c r="D55" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F55">
@@ -1564,11 +1557,11 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -1590,7 +1583,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B60" t="s">

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12560" yWindow="460" windowWidth="13040" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="15220" yWindow="460" windowWidth="10380" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="113" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,7 +610,7 @@
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.1640625" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.1640625" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -653,6 +653,9 @@
       <c r="E3" t="s">
         <v>14</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -995,7 +998,7 @@
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>1</v>
       </c>
       <c r="D21" t="s">
@@ -1004,7 +1007,7 @@
       <c r="E21" t="s">
         <v>49</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1015,7 +1018,7 @@
       <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>1</v>
       </c>
       <c r="D22" t="s">
@@ -1024,7 +1027,7 @@
       <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1035,7 +1038,7 @@
       <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>1</v>
       </c>
       <c r="D23" t="s">
@@ -1044,7 +1047,7 @@
       <c r="E23" t="s">
         <v>21</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1055,7 +1058,7 @@
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>1</v>
       </c>
       <c r="D24" t="s">
@@ -1064,7 +1067,7 @@
       <c r="E24" t="s">
         <v>45</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1084,7 +1087,7 @@
       <c r="E25" t="s">
         <v>20</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1095,7 +1098,7 @@
       <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>1</v>
       </c>
       <c r="D26" t="s">
@@ -1104,7 +1107,7 @@
       <c r="E26" t="s">
         <v>50</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1115,7 +1118,7 @@
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>1</v>
       </c>
       <c r="D27" t="s">
@@ -1124,7 +1127,7 @@
       <c r="E27" t="s">
         <v>16</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1135,7 +1138,7 @@
       <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>1</v>
       </c>
       <c r="D28" t="s">
@@ -1144,7 +1147,7 @@
       <c r="E28" t="s">
         <v>45</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1155,7 +1158,7 @@
       <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>1</v>
       </c>
       <c r="D29" t="s">
@@ -1164,7 +1167,7 @@
       <c r="E29" t="s">
         <v>16</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1175,7 +1178,7 @@
       <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>1</v>
       </c>
       <c r="D30" t="s">
@@ -1195,7 +1198,7 @@
       <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>1</v>
       </c>
       <c r="E31" t="s">
@@ -1212,7 +1215,7 @@
       <c r="B32" t="s">
         <v>29</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1223,7 +1226,7 @@
       <c r="B33" t="s">
         <v>16</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <v>1</v>
       </c>
       <c r="E33" t="s">
@@ -1237,7 +1240,7 @@
       <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1248,7 +1251,7 @@
       <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1296,9 +1299,6 @@
       <c r="E41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -1307,17 +1307,11 @@
       <c r="B42" t="s">
         <v>15</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
       <c r="D42" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1327,17 +1321,11 @@
       <c r="B43" t="s">
         <v>16</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
       <c r="D43" t="s">
         <v>37</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1347,17 +1335,11 @@
       <c r="B44" t="s">
         <v>59</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
       <c r="D44" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1367,17 +1349,11 @@
       <c r="B45" t="s">
         <v>60</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
       <c r="D45" t="s">
         <v>4</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -1387,18 +1363,12 @@
       <c r="B46" t="s">
         <v>61</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
       <c r="D46" t="s">
         <v>67</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
     </row>
     <row r="47" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -1407,17 +1377,11 @@
       <c r="B47" t="s">
         <v>20</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
       <c r="D47" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1427,143 +1391,101 @@
       <c r="B48" t="s">
         <v>62</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
       <c r="D48" t="s">
         <v>67</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>63</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
       <c r="D49" t="s">
         <v>4</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>64</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
       <c r="D50" t="s">
         <v>68</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
       <c r="D51" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
       <c r="D52" t="s">
         <v>4</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
       <c r="B53" t="s">
         <v>31</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
       <c r="D53" t="s">
         <v>37</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>67</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -1574,187 +1496,133 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>14</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>36</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>37</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>38</v>
       </c>
       <c r="B63" t="s">
         <v>45</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>4</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>36</v>
       </c>
       <c r="B65" t="s">
         <v>77</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>6</v>
       </c>
       <c r="B68" t="s">
         <v>23</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>78</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>37</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>37</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>36</v>
       </c>
       <c r="B73" t="s">
         <v>79</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>16</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>77</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>52</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="460" windowWidth="10380" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="15260" yWindow="460" windowWidth="10340" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="78">
   <si>
     <t>i</t>
   </si>
@@ -188,13 +188,7 @@
     <t>Victory!</t>
   </si>
   <si>
-    <t>only does one attack</t>
-  </si>
-  <si>
     <t>Creatures</t>
-  </si>
-  <si>
-    <t>Does not have writing?</t>
   </si>
   <si>
     <t>turn on shovel</t>
@@ -601,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="113" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,7 +615,7 @@
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -650,6 +644,9 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
@@ -1187,7 +1184,7 @@
       <c r="E30" t="s">
         <v>51</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1204,7 +1201,7 @@
       <c r="E31" t="s">
         <v>52</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1229,9 +1226,6 @@
       <c r="C33" s="4">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1255,19 +1249,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -1296,8 +1285,14 @@
       <c r="B41" t="s">
         <v>14</v>
       </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
       <c r="E41" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1307,33 +1302,48 @@
       <c r="B42" t="s">
         <v>15</v>
       </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
       <c r="D42" t="s">
         <v>13</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>37</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
         <v>57</v>
       </c>
-      <c r="B44" t="s">
-        <v>59</v>
+      <c r="C44">
+        <v>1</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
@@ -1341,13 +1351,19 @@
       <c r="E44" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
         <v>58</v>
       </c>
-      <c r="B45" t="s">
-        <v>60</v>
+      <c r="C45">
+        <v>1</v>
       </c>
       <c r="D45" t="s">
         <v>4</v>
@@ -1355,19 +1371,28 @@
       <c r="E45" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
       </c>
       <c r="D46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>69</v>
+      <c r="F46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1377,70 +1402,103 @@
       <c r="B47" t="s">
         <v>20</v>
       </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
       <c r="D47" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>62</v>
       </c>
-      <c r="D48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
       </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
       <c r="D52" t="s">
         <v>4</v>
       </c>
@@ -1448,44 +1506,56 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
       <c r="B53" t="s">
         <v>31</v>
       </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
       <c r="D53" t="s">
         <v>37</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>32</v>
       </c>
@@ -1496,133 +1566,187 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>36</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>37</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>38</v>
       </c>
       <c r="B63" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>4</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>36</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>8</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>6</v>
       </c>
       <c r="B68" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>37</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>37</v>
       </c>
       <c r="B71" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>52</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
